--- a/tables/blogs.xlsx
+++ b/tables/blogs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E24B5B-5827-1D4E-B86E-CF871D6EA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85267A-91E7-E74C-A93C-95A81BC91E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25460" windowHeight="14160" xr2:uid="{F4DF8C39-CF9D-A146-A581-83BC876F97BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>blog</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>https://github.com/RamiKrispin</t>
+  </si>
+  <si>
+    <t>https://www.yan-holtz.com/</t>
+  </si>
+  <si>
+    <t>Yan Holtz</t>
   </si>
 </sst>
 </file>
@@ -816,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245F8200-F879-724D-A0E9-7D624933F044}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,443 +962,451 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>91</v>
       </c>
     </row>

--- a/tables/blogs.xlsx
+++ b/tables/blogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85267A-91E7-E74C-A93C-95A81BC91E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687769B-5E4A-8649-8D5A-9E0925212694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25460" windowHeight="14160" xr2:uid="{F4DF8C39-CF9D-A146-A581-83BC876F97BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>blog</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>Yan Holtz</t>
+  </si>
+  <si>
+    <t>Dominic Royé</t>
+  </si>
+  <si>
+    <t>Silvia Canelón</t>
+  </si>
+  <si>
+    <t>https://silviacanelon.com/</t>
+  </si>
+  <si>
+    <t>https://dominicroye.github.io/</t>
   </si>
 </sst>
 </file>
@@ -822,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245F8200-F879-724D-A0E9-7D624933F044}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,483 +942,499 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>66</v>
+      <c r="A64" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>71</v>
+      <c r="A67" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>91</v>
       </c>
     </row>

--- a/tables/blogs.xlsx
+++ b/tables/blogs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687769B-5E4A-8649-8D5A-9E0925212694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D00C38-0235-0E4E-942B-497C27299645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25460" windowHeight="14160" xr2:uid="{F4DF8C39-CF9D-A146-A581-83BC876F97BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>blog</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>https://dominicroye.github.io/</t>
+  </si>
+  <si>
+    <t>Елена Убогоева</t>
+  </si>
+  <si>
+    <t>https://ubogoeva.github.io/R4Analytics/</t>
   </si>
 </sst>
 </file>
@@ -834,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245F8200-F879-724D-A0E9-7D624933F044}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,7 +948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -950,7 +956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -1398,43 +1404,51 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>91</v>
       </c>
     </row>
